--- a/Day 1/Book6.xlsx
+++ b/Day 1/Book6.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3b1bd01281e22f5/Documents/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{1629BC09-43AD-4D0D-B003-D1CA2ECF8DD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C741483-E347-4A27-81C4-6248202C65C9}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A3DBCC42-B92D-4BDC-9D1E-0AD3715A7229}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -54,9 +48,6 @@
     <t>Test Executed By</t>
   </si>
   <si>
-    <t>Adhithya A</t>
-  </si>
-  <si>
     <t>Test Execution Date:</t>
   </si>
   <si>
@@ -154,12 +145,15 @@
   <si>
     <t>verify the admin dashboard</t>
   </si>
+  <si>
+    <t>Krishna.S</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -279,7 +273,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -331,7 +325,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -525,21 +519,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A732DDE-85C5-463A-BE42-7A2F4E4AD216}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="17.21875" customWidth="1"/>
     <col min="2" max="2" width="30.5546875" customWidth="1"/>
@@ -549,7 +543,7 @@
     <col min="6" max="6" width="14.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -563,7 +557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="18">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -577,7 +571,7 @@
         <v>45072</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="18">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -588,176 +582,176 @@
         <v>8</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="18">
+      <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.35">
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>17</v>
       </c>
-      <c r="G5" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="127.2" customHeight="1">
+      <c r="A6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="3" t="s">
+    </row>
+    <row r="7" spans="1:7" ht="127.2" customHeight="1">
+      <c r="A7" s="5" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
+      <c r="B7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="F7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="127.2" customHeight="1">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="D8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="6" t="s">
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="127.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    </row>
+    <row r="9" spans="1:7" ht="114" customHeight="1">
+      <c r="A9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B9" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="E9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5" t="s">
+    </row>
+    <row r="10" spans="1:7" ht="144.6" customHeight="1">
+      <c r="A10" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="6" t="s">
+      <c r="E10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="156" customHeight="1">
+      <c r="A11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="D11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>24</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
